--- a/tomeapp/public/data/wahadata/Export Data Specs.xlsx
+++ b/tomeapp/public/data/wahadata/Export Data Specs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveycstech-my.sharepoint.com/personal/csmith_ytech_edu/Documents/All/gitProjects/supermechacow.github.io/tome/wahadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveycstech-my.sharepoint.com/personal/csmith_ytech_edu/Documents/All/gitProjects/kroller/tomeapp/public/data/wahadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B1790F0-1535-45CD-9857-7B7BCB6FAF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_90BADFD613B9DC79AB054A9131F4C9D0C9CCBFA8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="332">
   <si>
     <t>Specification</t>
   </si>
@@ -1020,6 +1020,39 @@
   </si>
   <si>
     <t>Инфолист предназначен для включения в армию крусэйда.</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>stratagem_id</t>
+  </si>
+  <si>
+    <t>Stratagem identifier. Used to link to other tables</t>
+  </si>
+  <si>
+    <t>StratagemPhases.csv</t>
+  </si>
+  <si>
+    <t>File contains table of Stratagem Phases</t>
+  </si>
+  <si>
+    <t>Stratagem ID (link to Stratagems.csv table)</t>
+  </si>
+  <si>
+    <t>Stratagem phase</t>
+  </si>
+  <si>
+    <t>Файл содержит фазы стратегем</t>
+  </si>
+  <si>
+    <t>Идентификатор стратегемы (ссылка на таблицу Stratagems.csv)</t>
+  </si>
+  <si>
+    <t>Фаза стратегемы</t>
+  </si>
+  <si>
+    <t>Идентификатор стратегемы. Используется для связи с другими таблицами</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1191,10 +1224,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1418,10 +1454,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z182"/>
+  <dimension ref="A1:Z189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1462,11 +1498,11 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1492,11 +1528,11 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1522,11 +1558,11 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1552,11 +1588,11 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1670,11 +1706,11 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1894,11 +1930,11 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2254,11 +2290,11 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2726,7 +2762,7 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41" spans="1:26" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="29" t="s">
         <v>318</v>
       </c>
       <c r="B41" s="24" t="s">
@@ -2920,11 +2956,11 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -3246,11 +3282,11 @@
       <c r="Z56" s="2"/>
     </row>
     <row r="57" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -3606,11 +3642,11 @@
       <c r="Z67" s="2"/>
     </row>
     <row r="68" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -3864,11 +3900,11 @@
       <c r="Z75" s="2"/>
     </row>
     <row r="76" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -4530,11 +4566,11 @@
       <c r="Z95" s="2"/>
     </row>
     <row r="96" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="27" t="s">
+      <c r="A96" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -4822,11 +4858,11 @@
       <c r="Z104" s="2"/>
     </row>
     <row r="105" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="27" t="s">
+      <c r="A105" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="B105" s="28"/>
-      <c r="C105" s="28"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="31"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -5182,11 +5218,11 @@
       <c r="Z115" s="2"/>
     </row>
     <row r="116" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="27" t="s">
+      <c r="A116" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B116" s="28"/>
-      <c r="C116" s="28"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="31"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
@@ -5576,11 +5612,11 @@
       <c r="Z127" s="2"/>
     </row>
     <row r="128" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="27" t="s">
+      <c r="A128" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="B128" s="28"/>
-      <c r="C128" s="28"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="31"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -6004,11 +6040,11 @@
       <c r="Z140" s="2"/>
     </row>
     <row r="141" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A141" s="27" t="s">
+      <c r="A141" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="B141" s="28"/>
-      <c r="C141" s="28"/>
+      <c r="B141" s="31"/>
+      <c r="C141" s="31"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -6067,15 +6103,15 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B143" s="7" t="s">
+    <row r="143" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C143" s="7" t="s">
-        <v>39</v>
+      <c r="C143" s="26" t="s">
+        <v>323</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -6103,13 +6139,13 @@
     </row>
     <row r="144" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -6137,13 +6173,13 @@
     </row>
     <row r="145" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -6171,13 +6207,13 @@
     </row>
     <row r="146" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -6205,13 +6241,13 @@
     </row>
     <row r="147" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -6239,13 +6275,13 @@
     </row>
     <row r="148" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -6273,13 +6309,13 @@
     </row>
     <row r="149" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -6306,9 +6342,15 @@
       <c r="Z149" s="2"/>
     </row>
     <row r="150" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="9"/>
-      <c r="B150" s="9"/>
-      <c r="C150" s="9"/>
+      <c r="A150" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -6333,12 +6375,10 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A151" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
+    <row r="151" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A151" s="9"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="9"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -6363,12 +6403,12 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="B152" s="28"/>
-      <c r="C152" s="28"/>
+    <row r="152" spans="1:26" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A152" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -6393,16 +6433,12 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>10</v>
-      </c>
+    <row r="153" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A153" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="B153" s="31"/>
+      <c r="C153" s="31"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -6427,15 +6463,15 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>169</v>
+    <row r="154" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A154" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -6461,15 +6497,15 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B155" s="7" t="s">
+    <row r="155" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A155" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="B155" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C155" s="7" t="s">
-        <v>170</v>
+      <c r="C155" s="28" t="s">
+        <v>326</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -6495,15 +6531,15 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B156" s="7" t="s">
+    <row r="156" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A156" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="B156" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C156" s="7" t="s">
-        <v>171</v>
+      <c r="C156" s="28" t="s">
+        <v>327</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -6529,16 +6565,10 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>172</v>
-      </c>
+    <row r="157" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A157" s="9"/>
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
@@ -6563,16 +6593,12 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A158" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>173</v>
-      </c>
+    <row r="158" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -6598,15 +6624,11 @@
       <c r="Z158" s="2"/>
     </row>
     <row r="159" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>174</v>
-      </c>
+      <c r="A159" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="B159" s="31"/>
+      <c r="C159" s="31"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
@@ -6632,9 +6654,15 @@
       <c r="Z159" s="2"/>
     </row>
     <row r="160" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A160" s="9"/>
-      <c r="B160" s="9"/>
-      <c r="C160" s="9"/>
+      <c r="A160" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -6659,262 +6687,495 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="16" t="s">
+    <row r="161" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A161" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
+      <c r="L161" s="2"/>
+      <c r="M161" s="2"/>
+      <c r="N161" s="2"/>
+      <c r="O161" s="2"/>
+      <c r="P161" s="2"/>
+      <c r="Q161" s="2"/>
+      <c r="R161" s="2"/>
+      <c r="S161" s="2"/>
+      <c r="T161" s="2"/>
+      <c r="U161" s="2"/>
+      <c r="V161" s="2"/>
+      <c r="W161" s="2"/>
+      <c r="X161" s="2"/>
+      <c r="Y161" s="2"/>
+      <c r="Z161" s="2"/>
+    </row>
+    <row r="162" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A162" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+      <c r="R162" s="2"/>
+      <c r="S162" s="2"/>
+      <c r="T162" s="2"/>
+      <c r="U162" s="2"/>
+      <c r="V162" s="2"/>
+      <c r="W162" s="2"/>
+      <c r="X162" s="2"/>
+      <c r="Y162" s="2"/>
+      <c r="Z162" s="2"/>
+    </row>
+    <row r="163" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A163" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
+      <c r="P163" s="2"/>
+      <c r="Q163" s="2"/>
+      <c r="R163" s="2"/>
+      <c r="S163" s="2"/>
+      <c r="T163" s="2"/>
+      <c r="U163" s="2"/>
+      <c r="V163" s="2"/>
+      <c r="W163" s="2"/>
+      <c r="X163" s="2"/>
+      <c r="Y163" s="2"/>
+      <c r="Z163" s="2"/>
+    </row>
+    <row r="164" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A164" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="2"/>
+      <c r="N164" s="2"/>
+      <c r="O164" s="2"/>
+      <c r="P164" s="2"/>
+      <c r="Q164" s="2"/>
+      <c r="R164" s="2"/>
+      <c r="S164" s="2"/>
+      <c r="T164" s="2"/>
+      <c r="U164" s="2"/>
+      <c r="V164" s="2"/>
+      <c r="W164" s="2"/>
+      <c r="X164" s="2"/>
+      <c r="Y164" s="2"/>
+      <c r="Z164" s="2"/>
+    </row>
+    <row r="165" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A165" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="2"/>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
+      <c r="O165" s="2"/>
+      <c r="P165" s="2"/>
+      <c r="Q165" s="2"/>
+      <c r="R165" s="2"/>
+      <c r="S165" s="2"/>
+      <c r="T165" s="2"/>
+      <c r="U165" s="2"/>
+      <c r="V165" s="2"/>
+      <c r="W165" s="2"/>
+      <c r="X165" s="2"/>
+      <c r="Y165" s="2"/>
+      <c r="Z165" s="2"/>
+    </row>
+    <row r="166" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A166" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+      <c r="L166" s="2"/>
+      <c r="M166" s="2"/>
+      <c r="N166" s="2"/>
+      <c r="O166" s="2"/>
+      <c r="P166" s="2"/>
+      <c r="Q166" s="2"/>
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
+      <c r="T166" s="2"/>
+      <c r="U166" s="2"/>
+      <c r="V166" s="2"/>
+      <c r="W166" s="2"/>
+      <c r="X166" s="2"/>
+      <c r="Y166" s="2"/>
+      <c r="Z166" s="2"/>
+    </row>
+    <row r="167" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A167" s="9"/>
+      <c r="B167" s="9"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+      <c r="M167" s="2"/>
+      <c r="N167" s="2"/>
+      <c r="O167" s="2"/>
+      <c r="P167" s="2"/>
+      <c r="Q167" s="2"/>
+      <c r="R167" s="2"/>
+      <c r="S167" s="2"/>
+      <c r="T167" s="2"/>
+      <c r="U167" s="2"/>
+      <c r="V167" s="2"/>
+      <c r="W167" s="2"/>
+      <c r="X167" s="2"/>
+      <c r="Y167" s="2"/>
+      <c r="Z167" s="2"/>
+    </row>
+    <row r="168" spans="1:26" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-    </row>
-    <row r="162" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="29" t="s">
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+    </row>
+    <row r="169" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="B162" s="28"/>
-      <c r="C162" s="28"/>
-    </row>
-    <row r="163" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="8" t="s">
+      <c r="B169" s="31"/>
+      <c r="C169" s="31"/>
+    </row>
+    <row r="170" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B170" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C170" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="13" t="s">
+    <row r="171" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B164" s="23" t="s">
+      <c r="B171" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C164" s="17" t="s">
+      <c r="C171" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="17" t="s">
+    <row r="172" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="B165" s="23" t="s">
+      <c r="B172" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C165" s="13" t="s">
+      <c r="C172" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="13" t="s">
+    <row r="173" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B166" s="23" t="s">
+      <c r="B173" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C166" s="17" t="s">
+      <c r="C173" s="17" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="167" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="17" t="s">
+    <row r="174" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="B167" s="23" t="s">
+      <c r="B174" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C167" s="17" t="s">
+      <c r="C174" s="17" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="168" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="13" t="s">
+    <row r="175" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="B168" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C168" s="17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="169" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B169" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C169" s="20" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="170" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B170" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C170" s="19" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="171" spans="1:26" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="9"/>
-      <c r="B171" s="9"/>
-      <c r="C171" s="9"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
-      <c r="I171" s="2"/>
-      <c r="J171" s="2"/>
-      <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
-      <c r="M171" s="2"/>
-      <c r="N171" s="2"/>
-      <c r="O171" s="2"/>
-      <c r="P171" s="2"/>
-      <c r="Q171" s="2"/>
-      <c r="R171" s="2"/>
-      <c r="S171" s="2"/>
-      <c r="T171" s="2"/>
-      <c r="U171" s="2"/>
-      <c r="V171" s="2"/>
-      <c r="W171" s="2"/>
-      <c r="X171" s="2"/>
-      <c r="Y171" s="2"/>
-      <c r="Z171" s="2"/>
-    </row>
-    <row r="172" spans="1:26" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-    </row>
-    <row r="173" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="B173" s="28"/>
-      <c r="C173" s="28"/>
-    </row>
-    <row r="174" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="175" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="21" t="s">
-        <v>289</v>
       </c>
       <c r="B175" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C175" s="21" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="176" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="23" t="s">
-        <v>14</v>
+      <c r="C175" s="17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="176" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="B176" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C176" s="21" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="23" t="s">
-        <v>38</v>
+      <c r="C176" s="20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="177" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="18" t="s">
+        <v>129</v>
       </c>
       <c r="B177" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C177" s="21" t="s">
+      <c r="C177" s="19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A178" s="9"/>
+      <c r="B178" s="9"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2"/>
+      <c r="L178" s="2"/>
+      <c r="M178" s="2"/>
+      <c r="N178" s="2"/>
+      <c r="O178" s="2"/>
+      <c r="P178" s="2"/>
+      <c r="Q178" s="2"/>
+      <c r="R178" s="2"/>
+      <c r="S178" s="2"/>
+      <c r="T178" s="2"/>
+      <c r="U178" s="2"/>
+      <c r="V178" s="2"/>
+      <c r="W178" s="2"/>
+      <c r="X178" s="2"/>
+      <c r="Y178" s="2"/>
+      <c r="Z178" s="2"/>
+    </row>
+    <row r="179" spans="1:26" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+    </row>
+    <row r="180" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="B180" s="31"/>
+      <c r="C180" s="31"/>
+    </row>
+    <row r="181" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="B182" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" s="21" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B183" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B184" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:3" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="21" t="s">
+    <row r="185" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="B178" s="23" t="s">
+      <c r="B185" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C178" s="23" t="s">
+      <c r="C185" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:3" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="11" t="s">
+    <row r="186" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B179" s="23" t="s">
+      <c r="B186" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C179" s="20" t="s">
+      <c r="C186" s="20" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="180" spans="1:3" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="23" t="s">
+    <row r="187" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B180" s="23" t="s">
+      <c r="B187" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C180" s="21" t="s">
+      <c r="C187" s="21" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="181" spans="1:3" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="18" t="s">
+    <row r="188" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B181" s="23" t="s">
+      <c r="B188" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C181" s="19" t="s">
+      <c r="C188" s="19" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="9"/>
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B189" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A162:C162"/>
+  <mergeCells count="20">
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A96:C96"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A153:C153"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6929,11 +7190,13 @@
     <hyperlink ref="A115" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="A127" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="A140" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A151" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A161" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A172" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A158" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A168" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A179" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A152" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -6942,10 +7205,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z182"/>
+  <dimension ref="A1:Z189"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6986,11 +7249,11 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -7016,11 +7279,11 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -7046,11 +7309,11 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -7076,11 +7339,11 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -7194,11 +7457,11 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -7418,11 +7681,11 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -7778,11 +8041,11 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -8250,7 +8513,7 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="29" t="s">
         <v>318</v>
       </c>
       <c r="B41" s="24" t="s">
@@ -8444,11 +8707,11 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -8770,11 +9033,11 @@
       <c r="Z56" s="2"/>
     </row>
     <row r="57" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -9130,11 +9393,11 @@
       <c r="Z67" s="2"/>
     </row>
     <row r="68" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -9388,11 +9651,11 @@
       <c r="Z75" s="2"/>
     </row>
     <row r="76" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -10054,11 +10317,11 @@
       <c r="Z95" s="2"/>
     </row>
     <row r="96" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="27" t="s">
+      <c r="A96" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -10346,11 +10609,11 @@
       <c r="Z104" s="2"/>
     </row>
     <row r="105" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="27" t="s">
+      <c r="A105" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="B105" s="28"/>
-      <c r="C105" s="28"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="31"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -10706,11 +10969,11 @@
       <c r="Z115" s="2"/>
     </row>
     <row r="116" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="27" t="s">
+      <c r="A116" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="B116" s="28"/>
-      <c r="C116" s="28"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="31"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
@@ -11100,11 +11363,11 @@
       <c r="Z127" s="2"/>
     </row>
     <row r="128" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="27" t="s">
+      <c r="A128" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="B128" s="28"/>
-      <c r="C128" s="28"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="31"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -11528,11 +11791,11 @@
       <c r="Z140" s="2"/>
     </row>
     <row r="141" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A141" s="27" t="s">
+      <c r="A141" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="B141" s="28"/>
-      <c r="C141" s="28"/>
+      <c r="B141" s="31"/>
+      <c r="C141" s="31"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -11591,15 +11854,15 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B143" s="7" t="s">
+    <row r="143" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C143" s="7" t="s">
-        <v>202</v>
+      <c r="C143" s="28" t="s">
+        <v>331</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -11627,13 +11890,13 @@
     </row>
     <row r="144" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>272</v>
+        <v>202</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -11661,13 +11924,13 @@
     </row>
     <row r="145" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -11695,13 +11958,13 @@
     </row>
     <row r="146" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -11729,13 +11992,13 @@
     </row>
     <row r="147" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -11763,13 +12026,13 @@
     </row>
     <row r="148" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -11797,13 +12060,13 @@
     </row>
     <row r="149" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -11830,9 +12093,15 @@
       <c r="Z149" s="2"/>
     </row>
     <row r="150" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="9"/>
-      <c r="B150" s="9"/>
-      <c r="C150" s="9"/>
+      <c r="A150" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -11857,12 +12126,10 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A151" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
+    <row r="151" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A151" s="9"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="9"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -11887,12 +12154,12 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="B152" s="28"/>
-      <c r="C152" s="28"/>
+    <row r="152" spans="1:26" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A152" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -11917,16 +12184,12 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>184</v>
-      </c>
+    <row r="153" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A153" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="B153" s="31"/>
+      <c r="C153" s="31"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -11951,15 +12214,15 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>278</v>
+    <row r="154" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A154" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -11985,15 +12248,15 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B155" s="7" t="s">
+    <row r="155" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A155" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="B155" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C155" s="7" t="s">
-        <v>279</v>
+      <c r="C155" s="28" t="s">
+        <v>329</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -12019,15 +12282,15 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B156" s="7" t="s">
+    <row r="156" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A156" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="B156" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C156" s="7" t="s">
-        <v>280</v>
+      <c r="C156" s="28" t="s">
+        <v>330</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -12053,16 +12316,10 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>281</v>
-      </c>
+    <row r="157" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A157" s="9"/>
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
@@ -12087,16 +12344,12 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A158" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>282</v>
-      </c>
+    <row r="158" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -12122,15 +12375,11 @@
       <c r="Z158" s="2"/>
     </row>
     <row r="159" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>283</v>
-      </c>
+      <c r="A159" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="B159" s="31"/>
+      <c r="C159" s="31"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
@@ -12155,292 +12404,531 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="9"/>
-      <c r="B160" s="9"/>
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="16" t="s">
+    <row r="160" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A160" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="2"/>
+      <c r="L160" s="2"/>
+      <c r="M160" s="2"/>
+      <c r="N160" s="2"/>
+      <c r="O160" s="2"/>
+      <c r="P160" s="2"/>
+      <c r="Q160" s="2"/>
+      <c r="R160" s="2"/>
+      <c r="S160" s="2"/>
+      <c r="T160" s="2"/>
+      <c r="U160" s="2"/>
+      <c r="V160" s="2"/>
+      <c r="W160" s="2"/>
+      <c r="X160" s="2"/>
+      <c r="Y160" s="2"/>
+      <c r="Z160" s="2"/>
+    </row>
+    <row r="161" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A161" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
+      <c r="L161" s="2"/>
+      <c r="M161" s="2"/>
+      <c r="N161" s="2"/>
+      <c r="O161" s="2"/>
+      <c r="P161" s="2"/>
+      <c r="Q161" s="2"/>
+      <c r="R161" s="2"/>
+      <c r="S161" s="2"/>
+      <c r="T161" s="2"/>
+      <c r="U161" s="2"/>
+      <c r="V161" s="2"/>
+      <c r="W161" s="2"/>
+      <c r="X161" s="2"/>
+      <c r="Y161" s="2"/>
+      <c r="Z161" s="2"/>
+    </row>
+    <row r="162" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A162" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+      <c r="R162" s="2"/>
+      <c r="S162" s="2"/>
+      <c r="T162" s="2"/>
+      <c r="U162" s="2"/>
+      <c r="V162" s="2"/>
+      <c r="W162" s="2"/>
+      <c r="X162" s="2"/>
+      <c r="Y162" s="2"/>
+      <c r="Z162" s="2"/>
+    </row>
+    <row r="163" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A163" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
+      <c r="P163" s="2"/>
+      <c r="Q163" s="2"/>
+      <c r="R163" s="2"/>
+      <c r="S163" s="2"/>
+      <c r="T163" s="2"/>
+      <c r="U163" s="2"/>
+      <c r="V163" s="2"/>
+      <c r="W163" s="2"/>
+      <c r="X163" s="2"/>
+      <c r="Y163" s="2"/>
+      <c r="Z163" s="2"/>
+    </row>
+    <row r="164" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A164" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="2"/>
+      <c r="N164" s="2"/>
+      <c r="O164" s="2"/>
+      <c r="P164" s="2"/>
+      <c r="Q164" s="2"/>
+      <c r="R164" s="2"/>
+      <c r="S164" s="2"/>
+      <c r="T164" s="2"/>
+      <c r="U164" s="2"/>
+      <c r="V164" s="2"/>
+      <c r="W164" s="2"/>
+      <c r="X164" s="2"/>
+      <c r="Y164" s="2"/>
+      <c r="Z164" s="2"/>
+    </row>
+    <row r="165" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A165" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="2"/>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
+      <c r="O165" s="2"/>
+      <c r="P165" s="2"/>
+      <c r="Q165" s="2"/>
+      <c r="R165" s="2"/>
+      <c r="S165" s="2"/>
+      <c r="T165" s="2"/>
+      <c r="U165" s="2"/>
+      <c r="V165" s="2"/>
+      <c r="W165" s="2"/>
+      <c r="X165" s="2"/>
+      <c r="Y165" s="2"/>
+      <c r="Z165" s="2"/>
+    </row>
+    <row r="166" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A166" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+      <c r="L166" s="2"/>
+      <c r="M166" s="2"/>
+      <c r="N166" s="2"/>
+      <c r="O166" s="2"/>
+      <c r="P166" s="2"/>
+      <c r="Q166" s="2"/>
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
+      <c r="T166" s="2"/>
+      <c r="U166" s="2"/>
+      <c r="V166" s="2"/>
+      <c r="W166" s="2"/>
+      <c r="X166" s="2"/>
+      <c r="Y166" s="2"/>
+      <c r="Z166" s="2"/>
+    </row>
+    <row r="167" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="9"/>
+      <c r="B167" s="9"/>
+      <c r="C167" s="9"/>
+    </row>
+    <row r="168" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-    </row>
-    <row r="162" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="29" t="s">
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+    </row>
+    <row r="169" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="B162" s="28"/>
-      <c r="C162" s="28"/>
-    </row>
-    <row r="163" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="8" t="s">
+      <c r="B169" s="31"/>
+      <c r="C169" s="31"/>
+    </row>
+    <row r="170" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B170" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C170" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="164" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="13" t="s">
+    <row r="171" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B164" s="13" t="s">
+      <c r="B171" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C164" s="13" t="s">
+      <c r="C171" s="13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="165" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="17" t="s">
+    <row r="172" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="B165" s="13" t="s">
+      <c r="B172" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="C172" s="17" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="166" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="13" t="s">
+    <row r="173" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B166" s="13" t="s">
+      <c r="B173" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C166" s="17" t="s">
+      <c r="C173" s="17" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="167" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="17" t="s">
+    <row r="174" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="B167" s="17" t="s">
+      <c r="B174" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C167" s="17" t="s">
+      <c r="C174" s="17" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="168" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="13" t="s">
+    <row r="175" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B168" s="13" t="s">
+      <c r="B175" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C168" s="17" t="s">
+      <c r="C175" s="17" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="169" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="11" t="s">
+    <row r="176" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B169" s="13" t="s">
+      <c r="B176" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C169" s="20" t="s">
+      <c r="C176" s="20" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="170" spans="1:26" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A170" s="18" t="s">
+    <row r="177" spans="1:26" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A177" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B170" s="18" t="s">
+      <c r="B177" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C170" s="19" t="s">
+      <c r="C177" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
-      <c r="I170" s="2"/>
-      <c r="J170" s="2"/>
-      <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
-      <c r="M170" s="2"/>
-      <c r="N170" s="2"/>
-      <c r="O170" s="2"/>
-      <c r="P170" s="2"/>
-      <c r="Q170" s="2"/>
-      <c r="R170" s="2"/>
-      <c r="S170" s="2"/>
-      <c r="T170" s="2"/>
-      <c r="U170" s="2"/>
-      <c r="V170" s="2"/>
-      <c r="W170" s="2"/>
-      <c r="X170" s="2"/>
-      <c r="Y170" s="2"/>
-      <c r="Z170" s="2"/>
-    </row>
-    <row r="171" spans="1:26" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="9"/>
-      <c r="B171" s="9"/>
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="16" t="s">
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
+      <c r="K177" s="2"/>
+      <c r="L177" s="2"/>
+      <c r="M177" s="2"/>
+      <c r="N177" s="2"/>
+      <c r="O177" s="2"/>
+      <c r="P177" s="2"/>
+      <c r="Q177" s="2"/>
+      <c r="R177" s="2"/>
+      <c r="S177" s="2"/>
+      <c r="T177" s="2"/>
+      <c r="U177" s="2"/>
+      <c r="V177" s="2"/>
+      <c r="W177" s="2"/>
+      <c r="X177" s="2"/>
+      <c r="Y177" s="2"/>
+      <c r="Z177" s="2"/>
+    </row>
+    <row r="178" spans="1:26" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="9"/>
+      <c r="B178" s="9"/>
+      <c r="C178" s="9"/>
+    </row>
+    <row r="179" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-    </row>
-    <row r="173" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="29" t="s">
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+    </row>
+    <row r="180" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="B173" s="28"/>
-      <c r="C173" s="28"/>
-    </row>
-    <row r="174" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="8" t="s">
+      <c r="B180" s="31"/>
+      <c r="C180" s="31"/>
+    </row>
+    <row r="181" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B181" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C174" s="8" t="s">
+      <c r="C181" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="175" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="21" t="s">
+    <row r="182" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="B175" s="21" t="s">
+      <c r="B182" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="C175" s="21" t="s">
+      <c r="C182" s="21" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="176" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="23" t="s">
+    <row r="183" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B176" s="23" t="s">
+      <c r="B183" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C176" s="21" t="s">
+      <c r="C183" s="21" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="177" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="23" t="s">
+    <row r="184" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B177" s="23" t="s">
+      <c r="B184" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C177" s="23" t="s">
+      <c r="C184" s="23" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="178" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="21" t="s">
+    <row r="185" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="B178" s="23" t="s">
+      <c r="B185" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C178" s="21" t="s">
+      <c r="C185" s="21" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="179" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="11" t="s">
+    <row r="186" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B179" s="23" t="s">
+      <c r="B186" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C179" s="20" t="s">
+      <c r="C186" s="20" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="180" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="23" t="s">
+    <row r="187" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B180" s="23" t="s">
+      <c r="B187" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C180" s="21" t="s">
+      <c r="C187" s="21" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="181" spans="1:26" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A181" s="18" t="s">
+    <row r="188" spans="1:26" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A188" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B181" s="18" t="s">
+      <c r="B188" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C181" s="19" t="s">
+      <c r="C188" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
-      <c r="H181" s="2"/>
-      <c r="I181" s="2"/>
-      <c r="J181" s="2"/>
-      <c r="K181" s="2"/>
-      <c r="L181" s="2"/>
-      <c r="M181" s="2"/>
-      <c r="N181" s="2"/>
-      <c r="O181" s="2"/>
-      <c r="P181" s="2"/>
-      <c r="Q181" s="2"/>
-      <c r="R181" s="2"/>
-      <c r="S181" s="2"/>
-      <c r="T181" s="2"/>
-      <c r="U181" s="2"/>
-      <c r="V181" s="2"/>
-      <c r="W181" s="2"/>
-      <c r="X181" s="2"/>
-      <c r="Y181" s="2"/>
-      <c r="Z181" s="2"/>
-    </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="9"/>
-      <c r="B182" s="9"/>
-      <c r="C182" s="9"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2"/>
+      <c r="K188" s="2"/>
+      <c r="L188" s="2"/>
+      <c r="M188" s="2"/>
+      <c r="N188" s="2"/>
+      <c r="O188" s="2"/>
+      <c r="P188" s="2"/>
+      <c r="Q188" s="2"/>
+      <c r="R188" s="2"/>
+      <c r="S188" s="2"/>
+      <c r="T188" s="2"/>
+      <c r="U188" s="2"/>
+      <c r="V188" s="2"/>
+      <c r="W188" s="2"/>
+      <c r="X188" s="2"/>
+      <c r="Y188" s="2"/>
+      <c r="Z188" s="2"/>
+    </row>
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="9"/>
+      <c r="B189" s="9"/>
+      <c r="C189" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A162:C162"/>
+  <mergeCells count="20">
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A96:C96"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A153:C153"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -12455,11 +12943,12 @@
     <hyperlink ref="A115" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
     <hyperlink ref="A127" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
     <hyperlink ref="A140" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="A151" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="A161" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="A172" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="A158" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="A168" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="A179" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="A152" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/tomeapp/public/data/wahadata/Export Data Specs.xlsx
+++ b/tomeapp/public/data/wahadata/Export Data Specs.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveycstech-my.sharepoint.com/personal/csmith_ytech_edu/Documents/All/gitProjects/kroller/tomeapp/public/data/wahadata/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_90BADFD613B9DC79AB054A9131F4C9D0C9CCBFA8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="135" windowWidth="13200" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="EN" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="335">
   <si>
     <t>Specification</t>
   </si>
@@ -1054,11 +1048,20 @@
   <si>
     <t>Идентификатор стратегемы. Используется для связи с другими таблицами</t>
   </si>
+  <si>
+    <t>Stratagem identifier (link to the Stratagems.csv table)</t>
+  </si>
+  <si>
+    <t>The file contains a table of datasheet’s Stratagems</t>
+  </si>
+  <si>
+    <t>Datasheets_stratagems.csv</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1197,7 +1200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1228,6 +1231,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1237,17 +1243,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1450,15 +1453,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z189"/>
+  <dimension ref="A1:Z195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1498,11 +1499,11 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1528,11 +1529,11 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1558,11 +1559,11 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1588,11 +1589,11 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1706,11 +1707,11 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1930,11 +1931,11 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2290,11 +2291,11 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2956,11 +2957,11 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -3282,11 +3283,11 @@
       <c r="Z56" s="2"/>
     </row>
     <row r="57" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -3642,11 +3643,11 @@
       <c r="Z67" s="2"/>
     </row>
     <row r="68" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -3900,11 +3901,11 @@
       <c r="Z75" s="2"/>
     </row>
     <row r="76" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="32" t="s">
+      <c r="A76" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -4566,11 +4567,11 @@
       <c r="Z95" s="2"/>
     </row>
     <row r="96" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="32" t="s">
+      <c r="A96" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -4858,11 +4859,11 @@
       <c r="Z104" s="2"/>
     </row>
     <row r="105" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="32" t="s">
+      <c r="A105" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="34"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -5187,9 +5188,9 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
-        <v>138</v>
+    <row r="115" spans="1:26" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A115" s="16" t="s">
+        <v>334</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5217,12 +5218,12 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="B116" s="31"/>
-      <c r="C116" s="31"/>
+    <row r="116" spans="1:26" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A116" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="B116" s="34"/>
+      <c r="C116" s="34"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
@@ -5247,7 +5248,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>8</v>
       </c>
@@ -5281,15 +5282,15 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B118" s="7" t="s">
+    <row r="118" spans="1:26" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B118" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C118" s="7" t="s">
-        <v>140</v>
+      <c r="C118" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -5315,15 +5316,15 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B119" s="7" t="s">
+    <row r="119" spans="1:26" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="B119" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C119" s="7" t="s">
-        <v>141</v>
+      <c r="C119" s="32" t="s">
+        <v>332</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -5349,16 +5350,10 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>142</v>
-      </c>
+    <row r="120" spans="1:26" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="9"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -5383,16 +5378,12 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>143</v>
-      </c>
+    <row r="121" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
@@ -5418,15 +5409,11 @@
       <c r="Z121" s="2"/>
     </row>
     <row r="122" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="A122" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B122" s="34"/>
+      <c r="C122" s="34"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
@@ -5452,14 +5439,14 @@
       <c r="Z122" s="2"/>
     </row>
     <row r="123" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>145</v>
+      <c r="A123" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -5485,15 +5472,15 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B124" s="23" t="s">
+    <row r="124" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C124" s="23" t="s">
-        <v>39</v>
+      <c r="C124" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -5519,15 +5506,15 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="1:26" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="B125" s="23" t="s">
+    <row r="125" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C125" s="23" t="s">
-        <v>304</v>
+      <c r="C125" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -5554,9 +5541,15 @@
       <c r="Z125" s="2"/>
     </row>
     <row r="126" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="9"/>
+      <c r="A126" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
@@ -5581,12 +5574,16 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
+    <row r="127" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -5612,11 +5609,15 @@
       <c r="Z127" s="2"/>
     </row>
     <row r="128" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="B128" s="31"/>
-      <c r="C128" s="31"/>
+      <c r="A128" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -5642,14 +5643,14 @@
       <c r="Z128" s="2"/>
     </row>
     <row r="129" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>10</v>
+      <c r="A129" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -5675,15 +5676,15 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B130" s="7" t="s">
+    <row r="130" spans="1:26" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B130" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C130" s="7" t="s">
-        <v>135</v>
+      <c r="C130" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -5709,15 +5710,15 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B131" s="7" t="s">
+    <row r="131" spans="1:26" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B131" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C131" s="7" t="s">
-        <v>68</v>
+      <c r="C131" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -5744,15 +5745,9 @@
       <c r="Z131" s="2"/>
     </row>
     <row r="132" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>148</v>
-      </c>
+      <c r="A132" s="9"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -5777,16 +5772,12 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>150</v>
-      </c>
+    <row r="133" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -5812,15 +5803,11 @@
       <c r="Z133" s="2"/>
     </row>
     <row r="134" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>151</v>
-      </c>
+      <c r="A134" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B134" s="34"/>
+      <c r="C134" s="34"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -5846,14 +5833,14 @@
       <c r="Z134" s="2"/>
     </row>
     <row r="135" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>152</v>
+      <c r="A135" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -5881,13 +5868,13 @@
     </row>
     <row r="136" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -5915,13 +5902,13 @@
     </row>
     <row r="137" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -5949,13 +5936,13 @@
     </row>
     <row r="138" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -5982,9 +5969,15 @@
       <c r="Z138" s="2"/>
     </row>
     <row r="139" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="9"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
+      <c r="A139" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
@@ -6009,12 +6002,16 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A140" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
+    <row r="140" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A140" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -6040,11 +6037,15 @@
       <c r="Z140" s="2"/>
     </row>
     <row r="141" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A141" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="B141" s="31"/>
-      <c r="C141" s="31"/>
+      <c r="A141" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -6070,14 +6071,14 @@
       <c r="Z141" s="2"/>
     </row>
     <row r="142" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A142" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>10</v>
+      <c r="A142" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -6103,15 +6104,15 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B143" s="26" t="s">
+    <row r="143" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C143" s="26" t="s">
-        <v>323</v>
+      <c r="C143" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -6139,13 +6140,13 @@
     </row>
     <row r="144" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -6172,15 +6173,9 @@
       <c r="Z144" s="2"/>
     </row>
     <row r="145" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>161</v>
-      </c>
+      <c r="A145" s="9"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -6205,16 +6200,12 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>162</v>
-      </c>
+    <row r="146" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
@@ -6240,15 +6231,11 @@
       <c r="Z146" s="2"/>
     </row>
     <row r="147" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>164</v>
-      </c>
+      <c r="A147" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B147" s="34"/>
+      <c r="C147" s="34"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
@@ -6274,14 +6261,14 @@
       <c r="Z147" s="2"/>
     </row>
     <row r="148" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>165</v>
+      <c r="A148" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -6307,15 +6294,15 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B149" s="7" t="s">
+    <row r="149" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A149" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C149" s="7" t="s">
-        <v>167</v>
+      <c r="C149" s="26" t="s">
+        <v>323</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -6343,13 +6330,13 @@
     </row>
     <row r="150" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -6376,9 +6363,15 @@
       <c r="Z150" s="2"/>
     </row>
     <row r="151" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="9"/>
-      <c r="B151" s="9"/>
-      <c r="C151" s="9"/>
+      <c r="A151" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -6403,12 +6396,16 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A152" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
+    <row r="152" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A152" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -6433,12 +6430,16 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="B153" s="31"/>
-      <c r="C153" s="31"/>
+    <row r="153" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A153" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -6463,15 +6464,15 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>10</v>
+    <row r="154" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A154" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -6497,15 +6498,15 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="B155" s="26" t="s">
+    <row r="155" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A155" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C155" s="28" t="s">
-        <v>326</v>
+      <c r="C155" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -6531,15 +6532,15 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="B156" s="26" t="s">
+    <row r="156" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A156" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B156" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C156" s="28" t="s">
-        <v>327</v>
+      <c r="C156" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -6565,7 +6566,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="9"/>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
@@ -6593,9 +6594,9 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A158" s="6" t="s">
-        <v>168</v>
+    <row r="158" spans="1:26" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A158" s="16" t="s">
+        <v>324</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6623,12 +6624,12 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B159" s="31"/>
-      <c r="C159" s="31"/>
+    <row r="159" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A159" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="B159" s="34"/>
+      <c r="C159" s="34"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
@@ -6653,7 +6654,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
         <v>8</v>
       </c>
@@ -6687,15 +6688,15 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B161" s="7" t="s">
+    <row r="161" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A161" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="B161" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C161" s="7" t="s">
-        <v>169</v>
+      <c r="C161" s="28" t="s">
+        <v>326</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -6721,15 +6722,15 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A162" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B162" s="7" t="s">
+    <row r="162" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A162" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="B162" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C162" s="7" t="s">
-        <v>170</v>
+      <c r="C162" s="28" t="s">
+        <v>327</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -6755,16 +6756,10 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A163" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>171</v>
-      </c>
+    <row r="163" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A163" s="9"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
@@ -6789,16 +6784,12 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A164" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>172</v>
-      </c>
+    <row r="164" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -6824,15 +6815,11 @@
       <c r="Z164" s="2"/>
     </row>
     <row r="165" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>173</v>
-      </c>
+      <c r="A165" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="B165" s="34"/>
+      <c r="C165" s="34"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -6858,14 +6845,14 @@
       <c r="Z165" s="2"/>
     </row>
     <row r="166" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A166" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>174</v>
+      <c r="A166" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -6892,9 +6879,15 @@
       <c r="Z166" s="2"/>
     </row>
     <row r="167" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A167" s="9"/>
-      <c r="B167" s="9"/>
-      <c r="C167" s="9"/>
+      <c r="A167" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -6919,296 +6912,496 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" spans="1:26" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="16" t="s">
+    <row r="168" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A168" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="2"/>
+      <c r="M168" s="2"/>
+      <c r="N168" s="2"/>
+      <c r="O168" s="2"/>
+      <c r="P168" s="2"/>
+      <c r="Q168" s="2"/>
+      <c r="R168" s="2"/>
+      <c r="S168" s="2"/>
+      <c r="T168" s="2"/>
+      <c r="U168" s="2"/>
+      <c r="V168" s="2"/>
+      <c r="W168" s="2"/>
+      <c r="X168" s="2"/>
+      <c r="Y168" s="2"/>
+      <c r="Z168" s="2"/>
+    </row>
+    <row r="169" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A169" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2"/>
+      <c r="O169" s="2"/>
+      <c r="P169" s="2"/>
+      <c r="Q169" s="2"/>
+      <c r="R169" s="2"/>
+      <c r="S169" s="2"/>
+      <c r="T169" s="2"/>
+      <c r="U169" s="2"/>
+      <c r="V169" s="2"/>
+      <c r="W169" s="2"/>
+      <c r="X169" s="2"/>
+      <c r="Y169" s="2"/>
+      <c r="Z169" s="2"/>
+    </row>
+    <row r="170" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A170" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
+      <c r="K170" s="2"/>
+      <c r="L170" s="2"/>
+      <c r="M170" s="2"/>
+      <c r="N170" s="2"/>
+      <c r="O170" s="2"/>
+      <c r="P170" s="2"/>
+      <c r="Q170" s="2"/>
+      <c r="R170" s="2"/>
+      <c r="S170" s="2"/>
+      <c r="T170" s="2"/>
+      <c r="U170" s="2"/>
+      <c r="V170" s="2"/>
+      <c r="W170" s="2"/>
+      <c r="X170" s="2"/>
+      <c r="Y170" s="2"/>
+      <c r="Z170" s="2"/>
+    </row>
+    <row r="171" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A171" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2"/>
+      <c r="L171" s="2"/>
+      <c r="M171" s="2"/>
+      <c r="N171" s="2"/>
+      <c r="O171" s="2"/>
+      <c r="P171" s="2"/>
+      <c r="Q171" s="2"/>
+      <c r="R171" s="2"/>
+      <c r="S171" s="2"/>
+      <c r="T171" s="2"/>
+      <c r="U171" s="2"/>
+      <c r="V171" s="2"/>
+      <c r="W171" s="2"/>
+      <c r="X171" s="2"/>
+      <c r="Y171" s="2"/>
+      <c r="Z171" s="2"/>
+    </row>
+    <row r="172" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A172" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2"/>
+      <c r="L172" s="2"/>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2"/>
+      <c r="O172" s="2"/>
+      <c r="P172" s="2"/>
+      <c r="Q172" s="2"/>
+      <c r="R172" s="2"/>
+      <c r="S172" s="2"/>
+      <c r="T172" s="2"/>
+      <c r="U172" s="2"/>
+      <c r="V172" s="2"/>
+      <c r="W172" s="2"/>
+      <c r="X172" s="2"/>
+      <c r="Y172" s="2"/>
+      <c r="Z172" s="2"/>
+    </row>
+    <row r="173" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A173" s="9"/>
+      <c r="B173" s="9"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2"/>
+      <c r="K173" s="2"/>
+      <c r="L173" s="2"/>
+      <c r="M173" s="2"/>
+      <c r="N173" s="2"/>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" s="2"/>
+      <c r="R173" s="2"/>
+      <c r="S173" s="2"/>
+      <c r="T173" s="2"/>
+      <c r="U173" s="2"/>
+      <c r="V173" s="2"/>
+      <c r="W173" s="2"/>
+      <c r="X173" s="2"/>
+      <c r="Y173" s="2"/>
+      <c r="Z173" s="2"/>
+    </row>
+    <row r="174" spans="1:26" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-    </row>
-    <row r="169" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="30" t="s">
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+    </row>
+    <row r="175" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="B169" s="31"/>
-      <c r="C169" s="31"/>
-    </row>
-    <row r="170" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="8" t="s">
+      <c r="B175" s="34"/>
+      <c r="C175" s="34"/>
+    </row>
+    <row r="176" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B176" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C176" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="13" t="s">
+    <row r="177" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="B171" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C171" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="B172" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C172" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="173" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B173" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C173" s="17" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="174" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="B174" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C174" s="17" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="175" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B175" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C175" s="17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="176" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B176" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C176" s="20" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="177" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="18" t="s">
-        <v>129</v>
       </c>
       <c r="B177" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C177" s="19" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="178" spans="1:26" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A178" s="9"/>
-      <c r="B178" s="9"/>
-      <c r="C178" s="9"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
-      <c r="I178" s="2"/>
-      <c r="J178" s="2"/>
-      <c r="K178" s="2"/>
-      <c r="L178" s="2"/>
-      <c r="M178" s="2"/>
-      <c r="N178" s="2"/>
-      <c r="O178" s="2"/>
-      <c r="P178" s="2"/>
-      <c r="Q178" s="2"/>
-      <c r="R178" s="2"/>
-      <c r="S178" s="2"/>
-      <c r="T178" s="2"/>
-      <c r="U178" s="2"/>
-      <c r="V178" s="2"/>
-      <c r="W178" s="2"/>
-      <c r="X178" s="2"/>
-      <c r="Y178" s="2"/>
-      <c r="Z178" s="2"/>
-    </row>
-    <row r="179" spans="1:26" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-    </row>
-    <row r="180" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="B180" s="31"/>
-      <c r="C180" s="31"/>
-    </row>
-    <row r="181" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B181" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="182" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="21" t="s">
+      <c r="C177" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B178" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B179" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="17" t="s">
         <v>289</v>
+      </c>
+      <c r="B180" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B181" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="B182" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C182" s="21" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="183" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="23" t="s">
-        <v>14</v>
+      <c r="C182" s="20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="18" t="s">
+        <v>129</v>
       </c>
       <c r="B183" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C183" s="21" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="184" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B184" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C184" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="185" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="B185" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C185" s="23" t="s">
-        <v>15</v>
-      </c>
+      <c r="C183" s="19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A184" s="9"/>
+      <c r="B184" s="9"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2"/>
+      <c r="K184" s="2"/>
+      <c r="L184" s="2"/>
+      <c r="M184" s="2"/>
+      <c r="N184" s="2"/>
+      <c r="O184" s="2"/>
+      <c r="P184" s="2"/>
+      <c r="Q184" s="2"/>
+      <c r="R184" s="2"/>
+      <c r="S184" s="2"/>
+      <c r="T184" s="2"/>
+      <c r="U184" s="2"/>
+      <c r="V184" s="2"/>
+      <c r="W184" s="2"/>
+      <c r="X184" s="2"/>
+      <c r="Y184" s="2"/>
+      <c r="Z184" s="2"/>
+    </row>
+    <row r="185" spans="1:26" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
     </row>
     <row r="186" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B186" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C186" s="20" t="s">
-        <v>314</v>
-      </c>
+      <c r="A186" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="B186" s="34"/>
+      <c r="C186" s="34"/>
     </row>
     <row r="187" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B187" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C187" s="21" t="s">
-        <v>315</v>
+      <c r="A187" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="18" t="s">
-        <v>129</v>
+      <c r="A188" s="21" t="s">
+        <v>289</v>
       </c>
       <c r="B188" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C188" s="19" t="s">
+      <c r="C188" s="21" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="189" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B189" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" s="21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="190" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B190" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="B191" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B192" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" s="20" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B193" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" s="21" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B194" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" s="19" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B189" s="9"/>
+    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B195" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A165:C165"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="A57:C57"/>
     <mergeCell ref="A68:C68"/>
     <mergeCell ref="A76:C76"/>
     <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A116:C116"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A186:C186"/>
     <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="A159:C159"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A26" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A46" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A56" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A67" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A75" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A95" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A104" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A115" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A127" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A140" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A158" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A168" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A179" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A152" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A15" r:id="rId2"/>
+    <hyperlink ref="A26" r:id="rId3"/>
+    <hyperlink ref="A46" r:id="rId4"/>
+    <hyperlink ref="A56" r:id="rId5"/>
+    <hyperlink ref="A67" r:id="rId6"/>
+    <hyperlink ref="A75" r:id="rId7"/>
+    <hyperlink ref="A95" r:id="rId8"/>
+    <hyperlink ref="A104" r:id="rId9"/>
+    <hyperlink ref="A121" r:id="rId10"/>
+    <hyperlink ref="A133" r:id="rId11"/>
+    <hyperlink ref="A146" r:id="rId12"/>
+    <hyperlink ref="A164" r:id="rId13"/>
+    <hyperlink ref="A174" r:id="rId14"/>
+    <hyperlink ref="A185" r:id="rId15"/>
+    <hyperlink ref="A158" r:id="rId16"/>
+    <hyperlink ref="A115" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z189"/>
+  <dimension ref="A1:Z195"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7249,11 +7442,11 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -7279,11 +7472,11 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -7309,11 +7502,11 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -7339,11 +7532,11 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -7457,11 +7650,11 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -7681,11 +7874,11 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -8041,11 +8234,11 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -8707,11 +8900,11 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -9033,11 +9226,11 @@
       <c r="Z56" s="2"/>
     </row>
     <row r="57" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -9393,11 +9586,11 @@
       <c r="Z67" s="2"/>
     </row>
     <row r="68" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -9651,11 +9844,11 @@
       <c r="Z75" s="2"/>
     </row>
     <row r="76" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="32" t="s">
+      <c r="A76" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -10317,11 +10510,11 @@
       <c r="Z95" s="2"/>
     </row>
     <row r="96" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="32" t="s">
+      <c r="A96" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -10609,11 +10802,11 @@
       <c r="Z104" s="2"/>
     </row>
     <row r="105" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="32" t="s">
+      <c r="A105" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="34"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -10938,12 +11131,12 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
-        <v>138</v>
+    <row r="115" spans="1:26" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A115" s="16" t="s">
+        <v>334</v>
       </c>
       <c r="B115" s="2"/>
-      <c r="C115" s="14"/>
+      <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
@@ -10968,12 +11161,12 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="B116" s="31"/>
-      <c r="C116" s="31"/>
+    <row r="116" spans="1:26" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A116" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="B116" s="34"/>
+      <c r="C116" s="34"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
@@ -10998,7 +11191,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>182</v>
       </c>
@@ -11032,15 +11225,15 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B118" s="7" t="s">
+    <row r="118" spans="1:26" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B118" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="C118" s="7" t="s">
-        <v>258</v>
+      <c r="C118" s="30" t="s">
+        <v>216</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -11066,15 +11259,15 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B119" s="7" t="s">
+    <row r="119" spans="1:26" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="B119" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="C119" s="7" t="s">
-        <v>259</v>
+      <c r="C119" s="32" t="s">
+        <v>329</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -11100,16 +11293,10 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>260</v>
-      </c>
+    <row r="120" spans="1:26" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="9"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -11134,16 +11321,12 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>261</v>
-      </c>
+    <row r="121" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="14"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
@@ -11169,15 +11352,11 @@
       <c r="Z121" s="2"/>
     </row>
     <row r="122" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>203</v>
-      </c>
+      <c r="A122" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="B122" s="34"/>
+      <c r="C122" s="34"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
@@ -11202,15 +11381,15 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="1:26" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>262</v>
+    <row r="123" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A123" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -11236,15 +11415,15 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B124" s="23" t="s">
+    <row r="124" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C124" s="23" t="s">
-        <v>202</v>
+      <c r="C124" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -11271,14 +11450,14 @@
       <c r="Z124" s="2"/>
     </row>
     <row r="125" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="B125" s="23" t="s">
+      <c r="A125" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C125" s="23" t="s">
-        <v>303</v>
+      <c r="C125" s="7" t="s">
+        <v>259</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -11305,9 +11484,15 @@
       <c r="Z125" s="2"/>
     </row>
     <row r="126" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="9"/>
+      <c r="A126" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>260</v>
+      </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
@@ -11332,12 +11517,16 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
+    <row r="127" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>261</v>
+      </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -11363,11 +11552,15 @@
       <c r="Z127" s="2"/>
     </row>
     <row r="128" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="B128" s="31"/>
-      <c r="C128" s="31"/>
+      <c r="A128" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -11392,15 +11585,15 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>184</v>
+    <row r="129" spans="1:26" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>262</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -11426,15 +11619,15 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B130" s="7" t="s">
+    <row r="130" spans="1:26" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B130" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C130" s="7" t="s">
-        <v>253</v>
+      <c r="C130" s="23" t="s">
+        <v>202</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -11461,14 +11654,14 @@
       <c r="Z130" s="2"/>
     </row>
     <row r="131" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B131" s="7" t="s">
+      <c r="A131" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B131" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C131" s="7" t="s">
-        <v>264</v>
+      <c r="C131" s="23" t="s">
+        <v>303</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -11495,15 +11688,9 @@
       <c r="Z131" s="2"/>
     </row>
     <row r="132" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>265</v>
-      </c>
+      <c r="A132" s="9"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -11528,16 +11715,12 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>266</v>
-      </c>
+    <row r="133" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -11563,15 +11746,11 @@
       <c r="Z133" s="2"/>
     </row>
     <row r="134" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>267</v>
-      </c>
+      <c r="A134" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" s="34"/>
+      <c r="C134" s="34"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -11597,14 +11776,14 @@
       <c r="Z134" s="2"/>
     </row>
     <row r="135" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>238</v>
+      <c r="A135" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -11632,13 +11811,13 @@
     </row>
     <row r="136" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -11666,13 +11845,13 @@
     </row>
     <row r="137" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -11700,13 +11879,13 @@
     </row>
     <row r="138" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -11733,9 +11912,15 @@
       <c r="Z138" s="2"/>
     </row>
     <row r="139" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="9"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
+      <c r="A139" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>266</v>
+      </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
@@ -11760,12 +11945,16 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A140" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
+    <row r="140" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A140" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>267</v>
+      </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -11791,11 +11980,15 @@
       <c r="Z140" s="2"/>
     </row>
     <row r="141" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A141" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="B141" s="31"/>
-      <c r="C141" s="31"/>
+      <c r="A141" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>238</v>
+      </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -11821,14 +12014,14 @@
       <c r="Z141" s="2"/>
     </row>
     <row r="142" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A142" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>184</v>
+      <c r="A142" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -11854,15 +12047,15 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B143" s="26" t="s">
+    <row r="143" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C143" s="28" t="s">
-        <v>331</v>
+      <c r="C143" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -11890,13 +12083,13 @@
     </row>
     <row r="144" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>202</v>
+        <v>270</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -11923,15 +12116,9 @@
       <c r="Z144" s="2"/>
     </row>
     <row r="145" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>272</v>
-      </c>
+      <c r="A145" s="9"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -11956,16 +12143,12 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>273</v>
-      </c>
+    <row r="146" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
@@ -11991,15 +12174,11 @@
       <c r="Z146" s="2"/>
     </row>
     <row r="147" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>274</v>
-      </c>
+      <c r="A147" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="B147" s="34"/>
+      <c r="C147" s="34"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
@@ -12025,14 +12204,14 @@
       <c r="Z147" s="2"/>
     </row>
     <row r="148" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>275</v>
+      <c r="A148" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -12058,15 +12237,15 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B149" s="7" t="s">
+    <row r="149" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A149" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C149" s="7" t="s">
-        <v>276</v>
+      <c r="C149" s="28" t="s">
+        <v>331</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -12094,13 +12273,13 @@
     </row>
     <row r="150" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -12127,9 +12306,15 @@
       <c r="Z150" s="2"/>
     </row>
     <row r="151" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="9"/>
-      <c r="B151" s="9"/>
-      <c r="C151" s="9"/>
+      <c r="A151" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>272</v>
+      </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -12154,12 +12339,16 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A152" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
+    <row r="152" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A152" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>273</v>
+      </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -12184,12 +12373,16 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="B153" s="31"/>
-      <c r="C153" s="31"/>
+    <row r="153" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A153" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>274</v>
+      </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -12214,15 +12407,15 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>184</v>
+    <row r="154" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A154" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -12248,15 +12441,15 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="B155" s="26" t="s">
+    <row r="155" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A155" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C155" s="28" t="s">
-        <v>329</v>
+      <c r="C155" s="7" t="s">
+        <v>276</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -12282,15 +12475,15 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="B156" s="26" t="s">
+    <row r="156" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A156" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B156" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C156" s="28" t="s">
-        <v>330</v>
+      <c r="C156" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -12316,7 +12509,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="9"/>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
@@ -12344,9 +12537,9 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A158" s="6" t="s">
-        <v>168</v>
+    <row r="158" spans="1:26" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A158" s="16" t="s">
+        <v>324</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -12374,12 +12567,12 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="B159" s="31"/>
-      <c r="C159" s="31"/>
+    <row r="159" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A159" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="B159" s="34"/>
+      <c r="C159" s="34"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
@@ -12404,7 +12597,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
         <v>182</v>
       </c>
@@ -12438,15 +12631,15 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B161" s="7" t="s">
+    <row r="161" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A161" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="B161" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C161" s="7" t="s">
-        <v>278</v>
+      <c r="C161" s="28" t="s">
+        <v>329</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -12472,15 +12665,15 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A162" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B162" s="7" t="s">
+    <row r="162" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A162" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="B162" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C162" s="7" t="s">
-        <v>279</v>
+      <c r="C162" s="28" t="s">
+        <v>330</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -12506,16 +12699,10 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A163" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>280</v>
-      </c>
+    <row r="163" spans="1:26" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A163" s="9"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
@@ -12540,16 +12727,12 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A164" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>281</v>
-      </c>
+    <row r="164" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -12575,15 +12758,11 @@
       <c r="Z164" s="2"/>
     </row>
     <row r="165" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="A165" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="B165" s="34"/>
+      <c r="C165" s="34"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -12609,14 +12788,14 @@
       <c r="Z165" s="2"/>
     </row>
     <row r="166" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A166" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>283</v>
+      <c r="A166" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -12642,313 +12821,519 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="9"/>
-      <c r="B167" s="9"/>
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="16" t="s">
+    <row r="167" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A167" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+      <c r="M167" s="2"/>
+      <c r="N167" s="2"/>
+      <c r="O167" s="2"/>
+      <c r="P167" s="2"/>
+      <c r="Q167" s="2"/>
+      <c r="R167" s="2"/>
+      <c r="S167" s="2"/>
+      <c r="T167" s="2"/>
+      <c r="U167" s="2"/>
+      <c r="V167" s="2"/>
+      <c r="W167" s="2"/>
+      <c r="X167" s="2"/>
+      <c r="Y167" s="2"/>
+      <c r="Z167" s="2"/>
+    </row>
+    <row r="168" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A168" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="2"/>
+      <c r="M168" s="2"/>
+      <c r="N168" s="2"/>
+      <c r="O168" s="2"/>
+      <c r="P168" s="2"/>
+      <c r="Q168" s="2"/>
+      <c r="R168" s="2"/>
+      <c r="S168" s="2"/>
+      <c r="T168" s="2"/>
+      <c r="U168" s="2"/>
+      <c r="V168" s="2"/>
+      <c r="W168" s="2"/>
+      <c r="X168" s="2"/>
+      <c r="Y168" s="2"/>
+      <c r="Z168" s="2"/>
+    </row>
+    <row r="169" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A169" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2"/>
+      <c r="O169" s="2"/>
+      <c r="P169" s="2"/>
+      <c r="Q169" s="2"/>
+      <c r="R169" s="2"/>
+      <c r="S169" s="2"/>
+      <c r="T169" s="2"/>
+      <c r="U169" s="2"/>
+      <c r="V169" s="2"/>
+      <c r="W169" s="2"/>
+      <c r="X169" s="2"/>
+      <c r="Y169" s="2"/>
+      <c r="Z169" s="2"/>
+    </row>
+    <row r="170" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A170" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
+      <c r="K170" s="2"/>
+      <c r="L170" s="2"/>
+      <c r="M170" s="2"/>
+      <c r="N170" s="2"/>
+      <c r="O170" s="2"/>
+      <c r="P170" s="2"/>
+      <c r="Q170" s="2"/>
+      <c r="R170" s="2"/>
+      <c r="S170" s="2"/>
+      <c r="T170" s="2"/>
+      <c r="U170" s="2"/>
+      <c r="V170" s="2"/>
+      <c r="W170" s="2"/>
+      <c r="X170" s="2"/>
+      <c r="Y170" s="2"/>
+      <c r="Z170" s="2"/>
+    </row>
+    <row r="171" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A171" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2"/>
+      <c r="L171" s="2"/>
+      <c r="M171" s="2"/>
+      <c r="N171" s="2"/>
+      <c r="O171" s="2"/>
+      <c r="P171" s="2"/>
+      <c r="Q171" s="2"/>
+      <c r="R171" s="2"/>
+      <c r="S171" s="2"/>
+      <c r="T171" s="2"/>
+      <c r="U171" s="2"/>
+      <c r="V171" s="2"/>
+      <c r="W171" s="2"/>
+      <c r="X171" s="2"/>
+      <c r="Y171" s="2"/>
+      <c r="Z171" s="2"/>
+    </row>
+    <row r="172" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A172" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2"/>
+      <c r="L172" s="2"/>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2"/>
+      <c r="O172" s="2"/>
+      <c r="P172" s="2"/>
+      <c r="Q172" s="2"/>
+      <c r="R172" s="2"/>
+      <c r="S172" s="2"/>
+      <c r="T172" s="2"/>
+      <c r="U172" s="2"/>
+      <c r="V172" s="2"/>
+      <c r="W172" s="2"/>
+      <c r="X172" s="2"/>
+      <c r="Y172" s="2"/>
+      <c r="Z172" s="2"/>
+    </row>
+    <row r="173" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="9"/>
+      <c r="B173" s="9"/>
+      <c r="C173" s="9"/>
+    </row>
+    <row r="174" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-    </row>
-    <row r="169" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="30" t="s">
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+    </row>
+    <row r="175" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="B169" s="31"/>
-      <c r="C169" s="31"/>
-    </row>
-    <row r="170" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="8" t="s">
+      <c r="B175" s="34"/>
+      <c r="C175" s="34"/>
+    </row>
+    <row r="176" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B176" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C176" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="171" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="13" t="s">
+    <row r="177" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B171" s="13" t="s">
+      <c r="B177" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C171" s="13" t="s">
+      <c r="C177" s="13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="172" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="17" t="s">
+    <row r="178" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="B172" s="13" t="s">
+      <c r="B178" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C172" s="17" t="s">
+      <c r="C178" s="17" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="173" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="13" t="s">
+    <row r="179" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B173" s="13" t="s">
+      <c r="B179" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C173" s="17" t="s">
+      <c r="C179" s="17" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="174" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="17" t="s">
+    <row r="180" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="B174" s="17" t="s">
+      <c r="B180" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C174" s="17" t="s">
+      <c r="C180" s="17" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="175" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="13" t="s">
+    <row r="181" spans="1:26" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B175" s="13" t="s">
+      <c r="B181" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C175" s="17" t="s">
+      <c r="C181" s="17" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="176" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="11" t="s">
+    <row r="182" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B176" s="13" t="s">
+      <c r="B182" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C176" s="20" t="s">
+      <c r="C182" s="20" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="177" spans="1:26" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A177" s="18" t="s">
+    <row r="183" spans="1:26" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A183" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B177" s="18" t="s">
+      <c r="B183" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C177" s="19" t="s">
+      <c r="C183" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
-      <c r="I177" s="2"/>
-      <c r="J177" s="2"/>
-      <c r="K177" s="2"/>
-      <c r="L177" s="2"/>
-      <c r="M177" s="2"/>
-      <c r="N177" s="2"/>
-      <c r="O177" s="2"/>
-      <c r="P177" s="2"/>
-      <c r="Q177" s="2"/>
-      <c r="R177" s="2"/>
-      <c r="S177" s="2"/>
-      <c r="T177" s="2"/>
-      <c r="U177" s="2"/>
-      <c r="V177" s="2"/>
-      <c r="W177" s="2"/>
-      <c r="X177" s="2"/>
-      <c r="Y177" s="2"/>
-      <c r="Z177" s="2"/>
-    </row>
-    <row r="178" spans="1:26" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="9"/>
-      <c r="B178" s="9"/>
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="16" t="s">
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
+      <c r="K183" s="2"/>
+      <c r="L183" s="2"/>
+      <c r="M183" s="2"/>
+      <c r="N183" s="2"/>
+      <c r="O183" s="2"/>
+      <c r="P183" s="2"/>
+      <c r="Q183" s="2"/>
+      <c r="R183" s="2"/>
+      <c r="S183" s="2"/>
+      <c r="T183" s="2"/>
+      <c r="U183" s="2"/>
+      <c r="V183" s="2"/>
+      <c r="W183" s="2"/>
+      <c r="X183" s="2"/>
+      <c r="Y183" s="2"/>
+      <c r="Z183" s="2"/>
+    </row>
+    <row r="184" spans="1:26" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="9"/>
+      <c r="B184" s="9"/>
+      <c r="C184" s="9"/>
+    </row>
+    <row r="185" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-    </row>
-    <row r="180" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="30" t="s">
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+    </row>
+    <row r="186" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="B180" s="31"/>
-      <c r="C180" s="31"/>
-    </row>
-    <row r="181" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="8" t="s">
+      <c r="B186" s="34"/>
+      <c r="C186" s="34"/>
+    </row>
+    <row r="187" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B187" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C181" s="8" t="s">
+      <c r="C187" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="182" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="21" t="s">
+    <row r="188" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="B182" s="21" t="s">
+      <c r="B188" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="C182" s="21" t="s">
+      <c r="C188" s="21" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="183" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="23" t="s">
+    <row r="189" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B183" s="23" t="s">
+      <c r="B189" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C183" s="21" t="s">
+      <c r="C189" s="21" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="184" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="23" t="s">
+    <row r="190" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B184" s="23" t="s">
+      <c r="B190" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C184" s="23" t="s">
+      <c r="C190" s="23" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="185" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="21" t="s">
+    <row r="191" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="B185" s="23" t="s">
+      <c r="B191" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C185" s="21" t="s">
+      <c r="C191" s="21" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="186" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="11" t="s">
+    <row r="192" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B186" s="23" t="s">
+      <c r="B192" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C186" s="20" t="s">
+      <c r="C192" s="20" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="187" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="23" t="s">
+    <row r="193" spans="1:26" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B187" s="23" t="s">
+      <c r="B193" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C187" s="21" t="s">
+      <c r="C193" s="21" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="188" spans="1:26" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A188" s="18" t="s">
+    <row r="194" spans="1:26" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A194" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B188" s="18" t="s">
+      <c r="B194" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C188" s="19" t="s">
+      <c r="C194" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
-      <c r="I188" s="2"/>
-      <c r="J188" s="2"/>
-      <c r="K188" s="2"/>
-      <c r="L188" s="2"/>
-      <c r="M188" s="2"/>
-      <c r="N188" s="2"/>
-      <c r="O188" s="2"/>
-      <c r="P188" s="2"/>
-      <c r="Q188" s="2"/>
-      <c r="R188" s="2"/>
-      <c r="S188" s="2"/>
-      <c r="T188" s="2"/>
-      <c r="U188" s="2"/>
-      <c r="V188" s="2"/>
-      <c r="W188" s="2"/>
-      <c r="X188" s="2"/>
-      <c r="Y188" s="2"/>
-      <c r="Z188" s="2"/>
-    </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="9"/>
-      <c r="B189" s="9"/>
-      <c r="C189" s="9"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+      <c r="K194" s="2"/>
+      <c r="L194" s="2"/>
+      <c r="M194" s="2"/>
+      <c r="N194" s="2"/>
+      <c r="O194" s="2"/>
+      <c r="P194" s="2"/>
+      <c r="Q194" s="2"/>
+      <c r="R194" s="2"/>
+      <c r="S194" s="2"/>
+      <c r="T194" s="2"/>
+      <c r="U194" s="2"/>
+      <c r="V194" s="2"/>
+      <c r="W194" s="2"/>
+      <c r="X194" s="2"/>
+      <c r="Y194" s="2"/>
+      <c r="Z194" s="2"/>
+    </row>
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="9"/>
+      <c r="B195" s="9"/>
+      <c r="C195" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A165:C165"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="A57:C57"/>
     <mergeCell ref="A68:C68"/>
     <mergeCell ref="A76:C76"/>
     <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A116:C116"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A186:C186"/>
     <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="A159:C159"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A15" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A26" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A46" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="A56" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="A67" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="A75" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="A95" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="A104" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="A115" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="A127" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="A140" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="A158" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="A168" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="A179" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="A152" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A15" r:id="rId2"/>
+    <hyperlink ref="A26" r:id="rId3"/>
+    <hyperlink ref="A46" r:id="rId4"/>
+    <hyperlink ref="A56" r:id="rId5"/>
+    <hyperlink ref="A67" r:id="rId6"/>
+    <hyperlink ref="A75" r:id="rId7"/>
+    <hyperlink ref="A95" r:id="rId8"/>
+    <hyperlink ref="A104" r:id="rId9"/>
+    <hyperlink ref="A121" r:id="rId10"/>
+    <hyperlink ref="A133" r:id="rId11"/>
+    <hyperlink ref="A146" r:id="rId12"/>
+    <hyperlink ref="A164" r:id="rId13"/>
+    <hyperlink ref="A174" r:id="rId14"/>
+    <hyperlink ref="A185" r:id="rId15"/>
+    <hyperlink ref="A158" r:id="rId16"/>
+    <hyperlink ref="A115" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>